--- a/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T15:43:02+00:00</t>
+    <t>2023-02-06T15:49:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T15:49:52+00:00</t>
+    <t>2023-02-06T15:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T15:52:39+00:00</t>
+    <t>2023-02-08T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T08:31:05+00:00</t>
+    <t>2023-02-08T11:22:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:22:24+00:00</t>
+    <t>2023-02-08T11:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
